--- a/Mediolan.xlsx
+++ b/Mediolan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>linki</t>
   </si>
@@ -127,77 +127,44 @@
     <t>In this video, we'll show you the top 10 things to do in Milan. The suggestions are based on our many trips to this beautiful city. Don't forget to like this video, subscribe to our channel and enable notifications, and share your own experience or ask a question in the comments below. This video is sponsored by Catch Your Guide, the best way to book experiences in Milan and around the world. Use our exclusive discount in the description below. Here are our top 10 picks. Number 10 Duomo di Milano Piazza Duomo is the main square in the heart of Milan, known for its stunning cathedral, the Duomo di Milano. The Milan Cathedral is a massive Gothic cathedral that was completed in 1965 after several centuries of construction. The cathedral features numerous spires and statues and an impressive interior filled with artwork and intricate details. With over 3,400 statues, 135 cargoyles and 700 figures, it is believed to be the church with the most statues in the world. Hidden from the view, the bells of the Duomo di Milano are intentionally reserved to chime for rare occasions to preserve the church's structural integrity. One of the highlights of visiting the Duomo is the opportunity to explore its rooftop terrace. From there, you can enjoy breathtaking panoramic views of the city and an up-close look at the architectural details and sculptures of the cathedral. If you're visiting Piazza Duomo, don't skip the nearby attractions like Palazzo Reale di Milano, now a museum which served as the official residence of Milanese rulers, or the picturesque medieval Piazza Mercanti, surrounded by many beautiful buildings, or the renowned Galleria Vittorio Emanuele II shopping arcade, which we'll cover in the next chapter. NUMBER 9 FASHION AND SHOPPING Milan is known as one of the world's fashion capitals and is home to many high-end luxury fashion brands, designer boutiques, and trendy shopping districts. The city's fashion scene is centered around the Quadrilatero della Moda, a fashionable district in the city center that features some of the world's most renowned fashion designers and luxury brands. Milan is also famous for its many high-end shopping malls, including Galleria Vittorio Emanuele II, one of the world's oldest, most iconic shopping centers. The Galleria, named after the first king of Italy, was built in 1877 and features a stunning glass and iron roof, a beautiful mosaic floor, and restaurants, as well as elegant shops, home to some of the world's most prestigious fashion and jewelry brands, including Prada, Gucci, Louis Vuitton, and Cartier. If you love fashion, don't skip City Life Milan shopping district, Corso Como, a fashionable pedestrian street, and Corso Buenos Aires. Whether you're in the market for designer clothes, luxury accessories, or unique souvenirs, the city offers something for every type of shopper. NUMBER 8 THE CANALS OF MILAN Milan has a historic network of canals that date back to the Middle Ages, initially used to transport goods and materials around the city, which played an essential role in the city's economic and cultural development. As the city grew and modern transportation methods were introduced, the canals became less important for commercial purposes. In the early 20th century, many canals were filled in or covered over, and some were even used as open sewers. There has been an interest in reviving the canals with plans to restore and redevelop some of the neglected areas. Today, the canals are mainly used for tourism and recreation, with many visitors to the city enjoying boat tours and leisure walks along the canal banks. Some of the most famous canals in Milan include the Naviglio Grande and Naviglio Pallese. The canals offer picturesque views of the city and are surrounded by some of Milan's most historic and beautiful architecture. The bars and restaurants alongside the canal offer a wide variety of food and drink options. The area is known for its aperitivo culture, especially after 5pm and during the weekends, and many have outdoor seating areas that overlook the canal. Don't skip Vicolo Lavandai. Translating to Alley of the Washers, it was once a gathering place for washerwomen who used to wash clothes in the nearby canal, or the Sena Artificial Water Basin, which was designed for docking boats that sailed the Navigli di Milano. 7. FOOD AND DRINKS Milan is renowned for its rich culinary scene, offering a delightful array of food experiences. From traditional Milanese dishes like risotto alla milanese, delicious panettone and gorgonzola cheese to a wide variety of pasta, pizza, gelato and tasty pastries, Milan's food scene is a fusion of Italian flavors and international influences, ensuring a gastronomic adventure for every palate. Visit Itali Milano, a vibrant and immersive food emporium that celebrates Italian gastronomy in all its glory, featuring a vast selection of high-quality local and regional products, diverse dining options and even cooking classes. Of course, there are many bars and restaurants all over Milan where you can enjoy aperitivo or try a delicious meal, like the previously mentioned Navigli neighborhood. And don't skip a Starbucks Reserve Roastery, where traditional Italian espresso craftsmanship meets the modern Starbucks experience, offering a sensory journey through the exquisite beverages, delicious desserts and the theatre of coffee roasting. 6. VINTAGE TRAMS The trams of Milan form an integral part of the city transportation network, gracefully gliding through its streets and showcasing a harmonious blend of vintage charm and efficient urban mobility. Indulge in an unforgettable experience by embarking on a journey aboard these delightful and nostalgic trams. Did you know that the first trams in Milan were introduced in 1876 and were pulled by horses? Electric trams were introduced later, in the early 20th century. The vintage trams that are still in operation today date back to the 1920s and 1930s and have been lovingly restored to their former glory. The tram network has over 17 lines and runs on several different lines throughout the city, including the popular tourist route that takes you to places such as the Duomo, the Castello Sforzesco and the Navigli district. Milan boasts a comprehensive transportation system that efficiently connects the city, offering a range of options including metro lines, buses and trains, allowing residents and visitors to navigate the city easily and conveniently. 5. FONDAZIONE PRADA Fondazione Prada is an art and cultural institution established by the fashion designer Miuccia Prada and her husband in 1993. The foundation promotes contemporary art, architecture, cinema and philosophy throughout various exhibitions, projects and events. The main venue of the Fondazione Prada is located in a former gin distillery known as the Prada Foundation Complex. The complex was refurbished and expanded by a renowned Dutch architect. It comprises several buildings and spaces, each serving different purposes and showcasing various contemporary art and cultural aspects. Explore a variety of spaces that host rotating exhibitions featuring works by established and emerging artists from around the world. There are many other art centers, cultural institutions and museums in Milan worth exploring, such as Trienale di Milano, showcasing innovative and cutting-edge art, design and architecture through its diverse exhibitions and programs, and many others like Pirelli, Angar Bicocca and Pinacoteca di Brera. 4. PORTA ANUOVA Named after the Napoleonic gate built in 1810, Porta Anuova stands as a testament to Milan's urban transformation efforts. Porta Anuova is a modern and vibrant district characterized by its contemporary architecture, innovative urban planning and a blend of residential, commercial and cultural spaces, and home to three Fortune 500 companies, including Pirelli. Admire modern-style buildings from Piazza Gaia Ulianti or one of the most famous ones in the area, Bosco Verticale. This vertical forest is an architectural marvel comprising two residential towers covered in greenery. Porta Anuova showcases an innovative approach to sustainable living and urban green spaces. Walk around the beautiful Biblioteca degli Alberi, landscaped parks and gardens with many walking paths, benches and seasonal blooms. And that brings us to Get Your Guide, the sponsor of this video. When booking experiences, for instance to one of the world's most prestigious opera houses, Teatro alla Scala, admire The Last Supper by Leonardo da Vinci or walk around his beautiful vineyards, book a Duomo rooftop ticket or tour the San Siro football stadium, you can effortlessly do so with Get Your Guide. Embark on a hop-on-hop-off bus ride, enjoy an aperitivo tour or even book a day trip to Lake Como or the beautiful Sirmione. The choices are practically limitless anywhere you go, since Get Your Guide covers over 3,600 destinations worldwide with over 60,000 curated experiences. You might even find things you never knew existed. You can also book your next experience using your phone with an easy-to-use app and have your tickets ready immediately, with no printing and free cancellation, up to 24 hours before your activity. Download Get Your Guide now and find your unforgettable experience in Milan. The link is in the description. 3. National Museum of Science and Technology Museo Nazionale della Scienza e della Tecnologia Leonardo da Vinci, situated in a former monastery, is an extraordinary institution celebrating science and technology's wonders. The museum is dedicated to the life, works and inventions of the iconic Italian polymath Leonardo da Vinci, featuring a vast collection of his sketches, models and reconstructions, providing insight into his groundbreaking ideas and innovations. The museum boasts an extensive range of exhibits that cover various scientific and technological disciplines. Visitors can explore areas such as aerospace, energy, communication, materials and much more. The museum also features an extensive collection related to transport and communication devices, showcasing the evolution of transportation and communication technologies over time. One of the museum's main features is the Viggo rocket and Submarine Totti, a part of the Naval Transport Exhibition. It was the first submarine built in Italy after World War II. Its job was to patrol the waters of the Mediterranean and detect Soviet submarines. By the way, if you're interested in Leonardo da Vinci's work, don't skip the Leonardo III Museum, located in Galleria. The museum offers comprehensive and immersive exploration of Leonardo da Vinci's genius and innovations through interactive exhibits and multimedia displays. Or visit one of da Vinci's most famous works, The Last Supper, located in Santa Maria delle Grazie Church. 2. SEMPIONE PARK Parco Sempione is a large public park created in the late 19th century. It is one of Milan's largest parks and a popular destination for tourists and locals. The park features several walking and cycling paths and numerous benches and picnic areas where visitors can relax and enjoy the beautiful surroundings. In addition to natural beauty, Sempione Park is home to several notable monuments and buildings, including the Arco della Pace, built in the early 19th century, and the Branca Tower, a panoramic tower built in 1933. Of course, Milan offers many other beautiful parks and gardens, such as Giardini Indromontanelli. 1. CASTELLO SFORZESCO Castello Sforzesco, also called Sforza is a historic castle located in the city center, featuring several courtyards and gardens. The castle was originally built in the 15th century as a fortress, but it was transformed into a residence of the Duke of Milan, Francesco Sforza. The castle was later renovated and expanded by other rulers of the city. During the French occupation of Milan in the late 18th century, the castle was used as the barracks and prison, and many of its treasures were looted or destroyed. Today, the castle houses several museums and art collections, including Pinacoteca Castello Sforzesco and the Museum of Ancient Art. The castle is home to a vast collection of art and artifacts, including works by Italian renaissance masters like Leonardo da Vinci, Michelangelo, and Raphael. We wish you an amazing trip to Milan!</t>
   </si>
   <si>
-    <t>1. Milan Cathedral
-2. Hop-On Hop-Off Bus, Milan
-3. Parco Sempione
-4. Sforzesco Castle
-5. San Siro Stadium
-6. Pinacoteca Ambrosiana
-7. La Scala
-8. Museum of Science and Technology, Leonardo da Vinci
-9. Navigli Canals
-10. The Last Supper (Covenant of Santa Maria delle Grazie)</t>
-  </si>
-  <si>
-    <t>1. La última cena de Leonardo da Vinci
-2. Teatro de ópera
-3. Catedral de Italia
-4. Parque Sempíwen
-5. Arco triunfal de la paz
-6. Museo Leonardo XIII
-7. Navigli
-8. Museo de ciencia y tecnología
-9. Palacio de Brera
-10. Galería de San Sebastián
-11. Museo de la Ópera
-12. Convento de Santa María de Legracie
-13. Galería Víctor Emanuel II
-14. Duomo di Milán (Catedral de Milán)</t>
-  </si>
-  <si>
-    <t>1. Malpensa Airport
-2. Linate Airport
-3. Milano Centrale (train station)
-4. Via Monte Napoleone
-5. Piazza Santa Maria della Grazie
-6. Sforza Castle
-7. Branca Tower
-8. Antica Osteria Cavallini
-9. Pinoteca Brera
-10. Duomo (Milan Cathedral)
-11. Galleria Vittorio Emanuele II
-12. La Scala Opera House
-13. Camparino
-14. Rita's Tiki Room</t>
-  </si>
-  <si>
-    <t>1. Sforzesco Castle
-2. Sempione Park
-3. Brera District
-4. Brera Art Gallery
-5. Leonardo da Vinci's Science and Technology Museum
-6. Navigli District
-7. La Scala
-8. Quadrilatero d'Oro
-9. Corso Buenos Aires
-10. Galleria Vittorio Emanuele II
-11. Santa Maria delle Grazie (Last Supper)
-12. Duomo di Milano</t>
-  </si>
-  <si>
-    <t>1. Bosco Verticale
-2. Cimitero Monumentale
-3. Castello Sforzesco
-4. Kościół San Maurizio al Monastero Maggiore
-5. Pizzeria Ta Zero
-6. Piazza del Duomo
-7. Galleria Vittorio Emanuele II
-8. Sanktuarium św. Sebastiana
-9. Pasta Bar Al Dente
+    <t>['Milan Cathedral Updated', 'Hop-On Hop-Off Bus Updated', 'Parco Sempione Updated', 'Sforzesco Castle Updated', 'San Siro Stadium Updated', 'Pinacoteca Ambrosiana Updated', 'La Scala Updated', 'Museum of Science and Technology Updated', 'Navigli Canals Updated', 'The Last Supper Updated']</t>
+  </si>
+  <si>
+    <t>1. The Last Supper by Leonardo
+2. Opera House
+3. Cathedral
+4. Sempíwen Park
+5. Peace Arch
+6. Leonardo XIII Museum
+7. Navigli Canals
+8. Science Museum
+9. Brera Palace
+10. San Sebastián Gallery
+11. Opera Museum
+12. Santa María de Legracie Convent
+13. Víctor Emanuel Gallery
+14. Milan Cathedral</t>
+  </si>
+  <si>
+    <t>['Airport Malpensa', 'Airport Linate', 'Station Milano Centrale', 'Street Via Monte Napoleone', 'Square Piazza Santa Maria della Grazie', 'Castle Sforza', 'Tower Branca', 'Restaurant Osteria Antica Cavallini', 'Museum Brera Pinoteca', 'Church Cathedral Duomo', 'Mall Gallery Galleria Vittorio Emanuele II', 'Theater Opera House La Scala', 'Cafe Bar Camparino', 'Bar Room Rita's Tiki']</t>
+  </si>
+  <si>
+    <t>['Sforzesco Fortress', 'Sempione Greenspace', 'Brera Neighborhood', 'Brera Fine Arts Collection', 'Leonardo da Vinci Innovation and Science Hall', 'Navigli Area', 'La Scala Theatre', 'Golden Rectangle', 'Corso Buenos Aires Avenue', 'Vittorio Emanuele II Arcade', 'Santa Maria delle Grazie Church', 'Milan Cathedral']</t>
+  </si>
+  <si>
+    <t>1. Vertical Forest
+2. Monumental Cemetery
+3. Sforza Castle
+4. Church of San Maurizio at Monastero Maggiore
+5. Ta Zero Pizzeria
+6. Duomo Square
+7. Vittorio Emanuele II Gallery
+8. Sanctuary of St. Sebastian
+9. Al Dente Pasta Bar
 10. Iberia
 11. Navillo Grande
 12. Beer Gallery
-13. Bottiglieria Popolare
+13. Popular Bottlery
 14. Pescaria</t>
   </si>
   <si>
@@ -244,6 +211,78 @@
 2. Zamek Sforzów
 3. Pasta Fresca Giovanni
 4. Bosco Verticale</t>
+  </si>
+  <si>
+    <t>['Spontini', 'Luini', 'Pasta Fresca da Giovanni', 'English Football Pub', 'Gino Sorbillo', 'La Gelateria Della Musica', 'Osteria Italiana']</t>
+  </si>
+  <si>
+    <t>1. Galleria Vittorio Emanuele II
+2. Leonardo statue
+3. Piazza della Scala
+4. Camparino
+5. Branca Tower
+6. Parco Sempione
+7. Sforza Castle
+8. Louis Vuitton (referenced as a shop)
+9. Bosco Verticale
+10. Palazzo Brera
+11. La Scala Opera House
+12. Duomo (Milan Cathedral)
+13. Santa Maria della Grazie (location of The Last Supper)</t>
+  </si>
+  <si>
+    <t>1. Duomo
+2. Via Serracanto
+3. Armani museum
+4. Airbnb (specific name not mentioned)
+5. Osteria Romana
+6. Galleria (specific name not mentioned, general reference to the gallery area with shops and restaurants)
+7. Lake Cornwall (specific name not mentioned, referred to generically)
+8. Navigili (specific name not mentioned, referred to generically)
+9. Pizza con Cucia, Birra and Trigiani (mentioned as not the actual name but link promised)
+10. Milan Airport
+11. Starbucks at Milan Airport</t>
+  </si>
+  <si>
+    <t>Here is a list of specific places in Milan mentioned in the text:
+1. Needle, Thread and Knot
+2. Scadorna Station
+3. Vertical Forest
+4. Pirelli Hangar Bicocca
+5. Isola
+6. Wall of Dolls</t>
+  </si>
+  <si>
+    <t>1. Duomo di Milano
+2. Palazzo Reale di Milano
+3. Piazza Mercanti
+4. Galleria Vittorio Emanuele II
+5. Quadrilatero della Moda
+6. City Life Milan shopping district
+7. Corso Como
+8. Corso Buenos Aires
+9. Naviglio Grande
+10. Naviglio Pavese
+11. Vicolo Lavandai
+12. Sena Artificial Water Basin
+13. Itali Milano
+14. Starbucks Reserve Roastery
+15. Fondazione Prada
+16. Triennale di Milano
+17. Porta Nuova
+18. Bosco Verticale
+19. Biblioteca degli Alberi
+20. Teatro alla Scala
+21. Museo Nazionale della Scienza e della Tecnologia Leonardo da Vinci
+22. Leonardo III Museum
+23. Santa Maria delle Grazie Church
+24. Parco Sempione
+25. Arco della Pace
+26. Branca Tower
+27. Giardini Indro Montanelli
+28. Castello Sforzesco
+29. Pinacoteca Castello Sforzesco
+30. Museum of Ancient Art</t>
   </si>
 </sst>
 </file>
@@ -770,6 +809,9 @@
       <c r="B14" t="s">
         <v>32</v>
       </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
@@ -778,6 +820,9 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
@@ -786,21 +831,30 @@
       <c r="B16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
